--- a/Datos/Energia/Corredor Energia.xlsx
+++ b/Datos/Energia/Corredor Energia.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quique/Documents/Corredor Interoceanico/1. Documentos de Respaldo/2. Corredor Interoceánico/Negocios de Transporte/Factibilidad/Actualización/analisis-financiero/Datos/Energia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saulmendezaguirre/Documents/Axon/Analis financiero CIG/analisis-financiero/Datos/Energia/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2940" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Inversiones" sheetId="1" r:id="rId1"/>
     <sheet name="Costos" sheetId="2" r:id="rId2"/>
     <sheet name="Ingresos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Mantenimiento</t>
   </si>
@@ -73,16 +73,13 @@
     <t>Fase 1</t>
   </si>
   <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Costos.Operación</t>
-  </si>
-  <si>
     <t>Ingresos.Operación</t>
   </si>
   <si>
     <t>Explotacion</t>
+  </si>
+  <si>
+    <t>Costos.Operacion</t>
   </si>
 </sst>
 </file>
@@ -118,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,376 +396,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DI5"/>
+  <dimension ref="A1:DJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="13" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2012</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2013</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2014</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2015</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2016</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2017</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2018</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2019</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2020</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2021</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2022</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2023</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2024</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2025</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2026</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2027</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2028</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2029</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2030</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2031</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2032</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2033</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2034</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2035</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2036</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2037</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2038</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2039</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2040</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2041</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2042</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>2043</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>2044</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>2045</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>2046</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>2047</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>2048</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>2049</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>2050</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>2051</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>2052</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>2053</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>2054</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>2055</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>2056</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>2057</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>2058</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>2059</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>2060</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>2061</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>2062</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>2063</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>2064</v>
       </c>
-      <c r="BF1">
+      <c r="BG1">
         <v>2065</v>
       </c>
-      <c r="BG1">
+      <c r="BH1">
         <v>2066</v>
       </c>
-      <c r="BH1">
+      <c r="BI1">
         <v>2067</v>
       </c>
-      <c r="BI1">
+      <c r="BJ1">
         <v>2068</v>
       </c>
-      <c r="BJ1">
+      <c r="BK1">
         <v>2069</v>
       </c>
-      <c r="BK1">
+      <c r="BL1">
         <v>2070</v>
       </c>
-      <c r="BL1">
+      <c r="BM1">
         <v>2071</v>
       </c>
-      <c r="BM1">
+      <c r="BN1">
         <v>2072</v>
       </c>
-      <c r="BN1">
+      <c r="BO1">
         <v>2073</v>
       </c>
-      <c r="BO1">
+      <c r="BP1">
         <v>2074</v>
       </c>
-      <c r="BP1">
+      <c r="BQ1">
         <v>2075</v>
       </c>
-      <c r="BQ1">
+      <c r="BR1">
         <v>2076</v>
       </c>
-      <c r="BR1">
+      <c r="BS1">
         <v>2077</v>
       </c>
-      <c r="BS1">
+      <c r="BT1">
         <v>2078</v>
       </c>
-      <c r="BT1">
+      <c r="BU1">
         <v>2079</v>
       </c>
-      <c r="BU1">
+      <c r="BV1">
         <v>2080</v>
       </c>
-      <c r="BV1">
+      <c r="BW1">
         <v>2081</v>
       </c>
-      <c r="BW1">
+      <c r="BX1">
         <v>2082</v>
       </c>
-      <c r="BX1">
+      <c r="BY1">
         <v>2083</v>
       </c>
-      <c r="BY1">
+      <c r="BZ1">
         <v>2084</v>
       </c>
-      <c r="BZ1">
+      <c r="CA1">
         <v>2085</v>
       </c>
-      <c r="CA1">
+      <c r="CB1">
         <v>2086</v>
       </c>
-      <c r="CB1">
+      <c r="CC1">
         <v>2087</v>
       </c>
-      <c r="CC1">
+      <c r="CD1">
         <v>2088</v>
       </c>
-      <c r="CD1">
+      <c r="CE1">
         <v>2089</v>
       </c>
-      <c r="CE1">
+      <c r="CF1">
         <v>2090</v>
       </c>
-      <c r="CF1">
+      <c r="CG1">
         <v>2091</v>
       </c>
-      <c r="CG1">
+      <c r="CH1">
         <v>2092</v>
       </c>
-      <c r="CH1">
+      <c r="CI1">
         <v>2093</v>
       </c>
-      <c r="CI1">
+      <c r="CJ1">
         <v>2094</v>
       </c>
-      <c r="CJ1">
+      <c r="CK1">
         <v>2095</v>
       </c>
-      <c r="CK1">
+      <c r="CL1">
         <v>2096</v>
       </c>
-      <c r="CL1">
+      <c r="CM1">
         <v>2097</v>
       </c>
-      <c r="CM1">
+      <c r="CN1">
         <v>2098</v>
       </c>
-      <c r="CN1">
+      <c r="CO1">
         <v>2099</v>
       </c>
-      <c r="CO1">
+      <c r="CP1">
         <v>2100</v>
       </c>
-      <c r="CP1">
+      <c r="CQ1">
         <v>2101</v>
       </c>
-      <c r="CQ1">
+      <c r="CR1">
         <v>2102</v>
       </c>
-      <c r="CR1">
+      <c r="CS1">
         <v>2103</v>
       </c>
-      <c r="CS1">
+      <c r="CT1">
         <v>2104</v>
       </c>
-      <c r="CT1">
+      <c r="CU1">
         <v>2105</v>
       </c>
-      <c r="CU1">
+      <c r="CV1">
         <v>2106</v>
       </c>
-      <c r="CV1">
+      <c r="CW1">
         <v>2107</v>
       </c>
-      <c r="CW1">
+      <c r="CX1">
         <v>2108</v>
       </c>
-      <c r="CX1">
+      <c r="CY1">
         <v>2109</v>
       </c>
-      <c r="CY1">
+      <c r="CZ1">
         <v>2110</v>
       </c>
-      <c r="CZ1">
+      <c r="DA1">
         <v>2111</v>
       </c>
-      <c r="DA1">
+      <c r="DB1">
         <v>2112</v>
       </c>
-      <c r="DB1">
+      <c r="DC1">
         <v>2113</v>
       </c>
-      <c r="DC1">
+      <c r="DD1">
         <v>2114</v>
       </c>
-      <c r="DD1">
+      <c r="DE1">
         <v>2115</v>
       </c>
-      <c r="DE1">
+      <c r="DF1">
         <v>2116</v>
       </c>
-      <c r="DF1">
+      <c r="DG1">
         <v>2117</v>
       </c>
-      <c r="DG1">
+      <c r="DH1">
         <v>2118</v>
       </c>
-      <c r="DH1">
+      <c r="DI1">
         <v>2119</v>
       </c>
-      <c r="DI1">
+      <c r="DJ1">
         <v>2120</v>
       </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -775,17 +776,17 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>69401</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>71136</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>72914</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1092,23 +1093,26 @@
       <c r="DI2">
         <v>0</v>
       </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -1116,17 +1120,17 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>112955</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>115779</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>118673</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -1433,23 +1437,26 @@
       <c r="DI3">
         <v>0</v>
       </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -1457,17 +1464,17 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>832724</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>853542</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>874880</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
@@ -1774,23 +1781,26 @@
       <c r="DI4">
         <v>0</v>
       </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -1798,17 +1808,17 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>141791</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>145335</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>148969</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -2113,6 +2123,9 @@
         <v>0</v>
       </c>
       <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
         <v>0</v>
       </c>
     </row>
@@ -2125,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -2818,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3500,7 +3513,7 @@
   <dimension ref="A1:DG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3510,10 +3523,10 @@
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1">
         <v>2012</v>
@@ -3850,331 +3863,331 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>921087</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1003399</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>1093067</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>1190748</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>1244927</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>1301571</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>1360792</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>1422708</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>1487442</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>1555120</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>1625878</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>1699856</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>1777199</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <v>1858062</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="2">
         <v>1942603</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="2">
         <v>2030992</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="2">
         <v>2123402</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="2">
         <v>2220017</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="2">
         <v>2321028</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="2">
         <v>2426634</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="2">
         <v>2537046</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="2">
         <v>2652482</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="2">
         <v>2773170</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="2">
         <v>2899349</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="2">
         <v>3031269</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="2">
         <v>3169192</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="2">
         <v>3313390</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="2">
         <v>3464150</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="2">
         <v>3621768</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="2">
         <v>3786559</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="2">
         <v>3958847</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="2">
         <v>4057818</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="2">
         <v>4159264</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="2">
         <v>4263245</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="2">
         <v>4369827</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="2">
         <v>4479072</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="2">
         <v>4591049</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="2">
         <v>4705825</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="2">
         <v>4823471</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="2">
         <v>4944058</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="2">
         <v>5067659</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="2">
         <v>5194351</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="2">
         <v>5324209</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="2">
         <v>5457315</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="2">
         <v>5593747</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="2">
         <v>5733591</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="2">
         <v>5876931</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="2">
         <v>6023854</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="2">
         <v>6174451</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="2">
         <v>6328812</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="2">
         <v>6487032</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="2">
         <v>6649208</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="2">
         <v>6815438</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="2">
         <v>6985824</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="2">
         <v>7160470</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="2">
         <v>7339481</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BM2" s="2">
         <v>7522968</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="2">
         <v>7711043</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BO2" s="2">
         <v>7903819</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BP2" s="2">
         <v>8101414</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BQ2" s="2">
         <v>8303950</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2" s="2">
         <v>8511548</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BS2" s="2">
         <v>8724337</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BT2" s="2">
         <v>8942445</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BU2" s="2">
         <v>9166007</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2" s="2">
         <v>9395157</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BW2" s="2">
         <v>9630036</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BX2" s="2">
         <v>9870787</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="BY2" s="2">
         <v>10117556</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="BZ2" s="2">
         <v>10370495</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CA2" s="2">
         <v>10629757</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CB2" s="2">
         <v>10895501</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CC2" s="2">
         <v>11167889</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CD2" s="2">
         <v>11447086</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CE2" s="2">
         <v>11733263</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CF2" s="2">
         <v>12026595</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CG2" s="2">
         <v>12327260</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CH2" s="2">
         <v>12635441</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CI2" s="2">
         <v>12951327</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CJ2" s="2">
         <v>13275110</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CK2" s="2">
         <v>13606988</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CL2" s="2">
         <v>13947163</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CM2" s="2">
         <v>14295842</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CN2" s="2">
         <v>14653238</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CO2" s="2">
         <v>15019569</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CP2" s="2">
         <v>15395058</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CQ2" s="2">
         <v>15779935</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CR2" s="2">
         <v>16174433</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CS2" s="2">
         <v>16578794</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CT2" s="2">
         <v>16993264</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CU2" s="2">
         <v>17418095</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CV2" s="2">
         <v>17853548</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="CW2" s="2">
         <v>18299886</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="CX2" s="2">
         <v>18757384</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="CY2" s="2">
         <v>19226318</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="CZ2" s="2">
         <v>19706976</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DA2" s="2">
         <v>20199651</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DB2" s="2">
         <v>20704642</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DC2" s="2">
         <v>21222258</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DD2" s="2">
         <v>21752814</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DE2" s="2">
         <v>22296635</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DF2" s="2">
         <v>22854051</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DG2" s="2">
         <v>23425402</v>
       </c>
     </row>

--- a/Datos/Energia/Corredor Energia.xlsx
+++ b/Datos/Energia/Corredor Energia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27214"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inversiones" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:DH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2516,313 +2516,313 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>50144.427316033492</v>
       </c>
       <c r="K2" s="1">
-        <v>50144</v>
+        <v>51398.037998934327</v>
       </c>
       <c r="L2" s="1">
-        <v>51398</v>
+        <v>52682.988948907681</v>
       </c>
       <c r="M2" s="1">
-        <v>52683</v>
+        <v>54000.063672630364</v>
       </c>
       <c r="N2" s="1">
-        <v>54000</v>
+        <v>55350.065264446122</v>
       </c>
       <c r="O2" s="1">
-        <v>55350</v>
+        <v>56733.81689605728</v>
       </c>
       <c r="P2" s="1">
-        <v>56734</v>
+        <v>58152.162318458708</v>
       </c>
       <c r="Q2" s="1">
-        <v>58152</v>
+        <v>59605.966376420169</v>
       </c>
       <c r="R2" s="1">
-        <v>59606</v>
+        <v>61096.115535830671</v>
       </c>
       <c r="S2" s="1">
-        <v>61096</v>
+        <v>62623.518424226444</v>
       </c>
       <c r="T2" s="1">
-        <v>62624</v>
+        <v>64189.106384832099</v>
       </c>
       <c r="U2" s="1">
-        <v>64189</v>
+        <v>65793.834044452888</v>
       </c>
       <c r="V2" s="1">
-        <v>65794</v>
+        <v>67438.679895564215</v>
       </c>
       <c r="W2" s="1">
-        <v>67439</v>
+        <v>69124.646892953315</v>
       </c>
       <c r="X2" s="1">
-        <v>69125</v>
+        <v>70852.763065277148</v>
       </c>
       <c r="Y2" s="1">
-        <v>70853</v>
+        <v>72624.082141909064</v>
       </c>
       <c r="Z2" s="1">
-        <v>72624</v>
+        <v>74439.684195456794</v>
       </c>
       <c r="AA2" s="1">
-        <v>74440</v>
+        <v>76300.676300343213</v>
       </c>
       <c r="AB2" s="1">
-        <v>76301</v>
+        <v>78208.193207851786</v>
       </c>
       <c r="AC2" s="1">
-        <v>78208</v>
+        <v>80163.398038048079</v>
       </c>
       <c r="AD2" s="1">
-        <v>80163</v>
+        <v>82167.482988999269</v>
       </c>
       <c r="AE2" s="1">
-        <v>82167</v>
+        <v>84221.670063724247</v>
       </c>
       <c r="AF2" s="1">
-        <v>84222</v>
+        <v>86327.211815317351</v>
       </c>
       <c r="AG2" s="1">
-        <v>86327</v>
+        <v>88485.392110700297</v>
       </c>
       <c r="AH2" s="1">
-        <v>88485</v>
+        <v>90697.52691346778</v>
       </c>
       <c r="AI2" s="1">
-        <v>90698</v>
+        <v>92964.965086304495</v>
       </c>
       <c r="AJ2" s="1">
-        <v>92965</v>
+        <v>95289.089213462081</v>
       </c>
       <c r="AK2" s="1">
-        <v>95289</v>
+        <v>97671.316443798627</v>
       </c>
       <c r="AL2" s="1">
-        <v>97671</v>
+        <v>100113.09935489359</v>
       </c>
       <c r="AM2" s="1">
-        <v>100113</v>
+        <v>102615.92683876592</v>
       </c>
       <c r="AN2" s="1">
-        <v>102616</v>
+        <v>105181.32500973508</v>
       </c>
       <c r="AO2" s="1">
-        <v>105181</v>
+        <v>107810.85813497844</v>
       </c>
       <c r="AP2" s="1">
-        <v>107811</v>
+        <v>110506.12958835288</v>
       </c>
       <c r="AQ2" s="1">
-        <v>110506</v>
+        <v>113268.78282806171</v>
       </c>
       <c r="AR2" s="1">
-        <v>113269</v>
+        <v>116100.50239876324</v>
       </c>
       <c r="AS2" s="1">
-        <v>116101</v>
+        <v>119003.01495873232</v>
       </c>
       <c r="AT2" s="1">
-        <v>119003</v>
+        <v>121978.09033270062</v>
       </c>
       <c r="AU2" s="1">
-        <v>121978</v>
+        <v>125027.54259101814</v>
       </c>
       <c r="AV2" s="1">
-        <v>125028</v>
+        <v>128153.23115579356</v>
       </c>
       <c r="AW2" s="1">
-        <v>128153</v>
+        <v>131357.06193468842</v>
       </c>
       <c r="AX2" s="1">
-        <v>131357</v>
+        <v>134640.98848305558</v>
       </c>
       <c r="AY2" s="1">
-        <v>134641</v>
+        <v>138007.01319513202</v>
       </c>
       <c r="AZ2" s="1">
-        <v>138007</v>
+        <v>141457.18852501028</v>
       </c>
       <c r="BA2" s="1">
-        <v>141457</v>
+        <v>144993.61823813553</v>
       </c>
       <c r="BB2" s="1">
-        <v>144994</v>
+        <v>148618.45869408894</v>
       </c>
       <c r="BC2" s="1">
-        <v>148618</v>
+        <v>152333.92016144117</v>
       </c>
       <c r="BD2" s="1">
-        <v>152334</v>
+        <v>156142.26816547717</v>
       </c>
       <c r="BE2" s="1">
-        <v>156142</v>
+        <v>160045.82486961409</v>
       </c>
       <c r="BF2" s="1">
-        <v>160046</v>
+        <v>164046.97049135444</v>
       </c>
       <c r="BG2" s="1">
-        <v>164047</v>
+        <v>168148.14475363831</v>
       </c>
       <c r="BH2" s="1">
-        <v>168148</v>
+        <v>172351.84837247926</v>
       </c>
       <c r="BI2" s="1">
-        <v>172352</v>
+        <v>176660.64458179119</v>
       </c>
       <c r="BJ2" s="1">
-        <v>176661</v>
+        <v>181077.16069633598</v>
       </c>
       <c r="BK2" s="1">
-        <v>181077</v>
+        <v>185604.08971374438</v>
       </c>
       <c r="BL2" s="1">
-        <v>185604</v>
+        <v>190244.19195658798</v>
       </c>
       <c r="BM2" s="1">
-        <v>190244</v>
+        <v>195000.29675550267</v>
       </c>
       <c r="BN2" s="1">
-        <v>195000</v>
+        <v>199875.30417439018</v>
       </c>
       <c r="BO2" s="1">
-        <v>199875</v>
+        <v>204872.18677875001</v>
       </c>
       <c r="BP2" s="1">
-        <v>204872</v>
+        <v>209993.9914482187</v>
       </c>
       <c r="BQ2" s="1">
-        <v>209994</v>
+        <v>215243.84123442415</v>
       </c>
       <c r="BR2" s="1">
-        <v>215244</v>
+        <v>220624.93726528474</v>
       </c>
       <c r="BS2" s="1">
-        <v>220625</v>
+        <v>226140.56069691689</v>
       </c>
       <c r="BT2" s="1">
-        <v>226141</v>
+        <v>231794.0747143398</v>
       </c>
       <c r="BU2" s="1">
-        <v>231794</v>
+        <v>237588.92658219824</v>
       </c>
       <c r="BV2" s="1">
-        <v>237589</v>
+        <v>243528.64974675316</v>
       </c>
       <c r="BW2" s="1">
-        <v>243529</v>
+        <v>249616.86599042203</v>
       </c>
       <c r="BX2" s="1">
-        <v>249617</v>
+        <v>255857.28764018256</v>
       </c>
       <c r="BY2" s="1">
-        <v>255857</v>
+        <v>262253.71983118705</v>
       </c>
       <c r="BZ2" s="1">
-        <v>262254</v>
+        <v>268810.06282696675</v>
       </c>
       <c r="CA2" s="1">
-        <v>268810</v>
+        <v>275530.31439764093</v>
       </c>
       <c r="CB2" s="1">
-        <v>275530</v>
+        <v>282418.57225758187</v>
       </c>
       <c r="CC2" s="1">
-        <v>282419</v>
+        <v>289479.03656402149</v>
       </c>
       <c r="CD2" s="1">
-        <v>289479</v>
+        <v>296716.01247812196</v>
       </c>
       <c r="CE2" s="1">
-        <v>296716</v>
+        <v>304133.91279007506</v>
       </c>
       <c r="CF2" s="1">
-        <v>304134</v>
+        <v>311737.26060982689</v>
       </c>
       <c r="CG2" s="1">
-        <v>311737</v>
+        <v>319530.69212507253</v>
       </c>
       <c r="CH2" s="1">
-        <v>319531</v>
+        <v>327518.95942819933</v>
       </c>
       <c r="CI2" s="1">
-        <v>327519</v>
+        <v>335706.93341390439</v>
       </c>
       <c r="CJ2" s="1">
-        <v>335707</v>
+        <v>344099.60674925189</v>
       </c>
       <c r="CK2" s="1">
-        <v>344100</v>
+        <v>352702.0969179832</v>
       </c>
       <c r="CL2" s="1">
-        <v>352702</v>
+        <v>361519.64934093272</v>
       </c>
       <c r="CM2" s="1">
-        <v>361520</v>
+        <v>370557.64057445602</v>
       </c>
       <c r="CN2" s="1">
-        <v>370558</v>
+        <v>379821.58158881741</v>
       </c>
       <c r="CO2" s="1">
-        <v>379822</v>
+        <v>389317.12112853775</v>
       </c>
       <c r="CP2" s="1">
-        <v>389317</v>
+        <v>399050.04915675125</v>
       </c>
       <c r="CQ2" s="1">
-        <v>399050</v>
+        <v>409026.30038566998</v>
       </c>
       <c r="CR2" s="1">
-        <v>409026</v>
+        <v>419251.9578953117</v>
       </c>
       <c r="CS2" s="1">
-        <v>419252</v>
+        <v>429733.25684269454</v>
       </c>
       <c r="CT2" s="1">
-        <v>429733</v>
+        <v>440476.58826376183</v>
       </c>
       <c r="CU2" s="1">
-        <v>440477</v>
+        <v>451488.50297035597</v>
       </c>
       <c r="CV2" s="1">
-        <v>451489</v>
+        <v>462775.71554461477</v>
       </c>
       <c r="CW2" s="1">
-        <v>462776</v>
+        <v>474345.10843323008</v>
       </c>
       <c r="CX2" s="1">
-        <v>474345</v>
+        <v>486203.73614406091</v>
       </c>
       <c r="CY2" s="1">
-        <v>486204</v>
+        <v>498358.82954766235</v>
       </c>
       <c r="CZ2" s="1">
-        <v>498359</v>
+        <v>510817.80028635397</v>
       </c>
       <c r="DA2" s="1">
-        <v>510818</v>
+        <v>523588.24529351277</v>
       </c>
       <c r="DB2" s="1">
-        <v>523588</v>
+        <v>536677.95142585039</v>
       </c>
       <c r="DC2" s="1">
-        <v>536678</v>
+        <v>550094.90021149674</v>
       </c>
       <c r="DD2" s="1">
-        <v>550095</v>
+        <v>563847.27271678403</v>
       </c>
       <c r="DE2" s="1">
-        <v>563847</v>
+        <v>577943.45453470363</v>
       </c>
       <c r="DF2" s="1">
-        <v>577943</v>
+        <v>592392.04089807114</v>
       </c>
       <c r="DG2" s="1">
-        <v>592392</v>
+        <v>607201.84192052309</v>
       </c>
       <c r="DH2" s="1">
-        <v>607202</v>
+        <v>622381.88796853588</v>
       </c>
       <c r="DI2" s="1"/>
     </row>
@@ -2855,313 +2855,313 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>62560</v>
+        <v>62559.599213794951</v>
       </c>
       <c r="K3" s="1">
-        <v>67058</v>
+        <v>67058.205820658884</v>
       </c>
       <c r="L3" s="1">
-        <v>71932</v>
+        <v>71931.527086352144</v>
       </c>
       <c r="M3" s="1">
-        <v>77212</v>
+        <v>77212.366578043919</v>
       </c>
       <c r="N3" s="1">
-        <v>80351</v>
+        <v>80350.991624710674</v>
       </c>
       <c r="O3" s="1">
-        <v>83623</v>
+        <v>83623.060670184947</v>
       </c>
       <c r="P3" s="1">
-        <v>87034</v>
+        <v>87034.411330392002</v>
       </c>
       <c r="Q3" s="1">
-        <v>90591</v>
+        <v>90591.140980631331</v>
       </c>
       <c r="R3" s="1">
-        <v>94300</v>
+        <v>94299.618428324204</v>
       </c>
       <c r="S3" s="1">
-        <v>98166</v>
+        <v>98166.496113213987</v>
       </c>
       <c r="T3" s="1">
-        <v>102199</v>
+        <v>102198.72285892627</v>
       </c>
       <c r="U3" s="1">
-        <v>106404</v>
+        <v>106403.55720088248</v>
       </c>
       <c r="V3" s="1">
-        <v>110789</v>
+        <v>110788.58131669456</v>
       </c>
       <c r="W3" s="1">
-        <v>115362</v>
+        <v>115361.71558635544</v>
       </c>
       <c r="X3" s="1">
-        <v>120131</v>
+        <v>120131.23381077959</v>
       </c>
       <c r="Y3" s="1">
-        <v>125106</v>
+        <v>125105.77911854621</v>
       </c>
       <c r="Z3" s="1">
-        <v>130294</v>
+        <v>130294.38059205061</v>
       </c>
       <c r="AA3" s="1">
-        <v>135706</v>
+        <v>135706.47064568973</v>
       </c>
       <c r="AB3" s="1">
-        <v>141352</v>
+        <v>141351.90319018695</v>
       </c>
       <c r="AC3" s="1">
-        <v>147241</v>
+        <v>147240.97261871173</v>
       </c>
       <c r="AD3" s="1">
-        <v>153384</v>
+        <v>153384.43365206866</v>
       </c>
       <c r="AE3" s="1">
-        <v>159794</v>
+        <v>159793.52208192353</v>
       </c>
       <c r="AF3" s="1">
-        <v>166480</v>
+        <v>166479.97645280388</v>
       </c>
       <c r="AG3" s="1">
-        <v>173456</v>
+        <v>173456.06072546318</v>
       </c>
       <c r="AH3" s="1">
-        <v>180735</v>
+        <v>180734.58796612982</v>
       </c>
       <c r="AI3" s="1">
-        <v>188329</v>
+        <v>188328.94510818835</v>
       </c>
       <c r="AJ3" s="1">
-        <v>196253</v>
+        <v>196253.11883495041</v>
       </c>
       <c r="AK3" s="1">
-        <v>204522</v>
+        <v>204521.72263438869</v>
       </c>
       <c r="AL3" s="1">
-        <v>213150</v>
+        <v>213150.02507901259</v>
       </c>
       <c r="AM3" s="1">
-        <v>222154</v>
+        <v>222153.97938648585</v>
       </c>
       <c r="AN3" s="1">
-        <v>231550</v>
+        <v>231550.25431910867</v>
       </c>
       <c r="AO3" s="1">
-        <v>237339</v>
+        <v>237339.01067708636</v>
       </c>
       <c r="AP3" s="1">
-        <v>243272</v>
+        <v>243272.48594401346</v>
       </c>
       <c r="AQ3" s="1">
-        <v>249354</v>
+        <v>249354.29809261381</v>
       </c>
       <c r="AR3" s="1">
-        <v>255588</v>
+        <v>255588.15554492912</v>
       </c>
       <c r="AS3" s="1">
-        <v>261978</v>
+        <v>261977.85943355237</v>
       </c>
       <c r="AT3" s="1">
-        <v>268527</v>
+        <v>268527.30591939116</v>
       </c>
       <c r="AU3" s="1">
-        <v>275240</v>
+        <v>275240.48856737599</v>
       </c>
       <c r="AV3" s="1">
-        <v>282122</v>
+        <v>282121.50078156026</v>
       </c>
       <c r="AW3" s="1">
-        <v>289175</v>
+        <v>289174.53830109932</v>
       </c>
       <c r="AX3" s="1">
-        <v>296404</v>
+        <v>296403.90175862669</v>
       </c>
       <c r="AY3" s="1">
-        <v>303814</v>
+        <v>303813.99930259248</v>
       </c>
       <c r="AZ3" s="1">
-        <v>311409</v>
+        <v>311409.34928515722</v>
       </c>
       <c r="BA3" s="1">
-        <v>319195</v>
+        <v>319194.58301728615</v>
       </c>
       <c r="BB3" s="1">
-        <v>327174</v>
+        <v>327174.44759271829</v>
       </c>
       <c r="BC3" s="1">
-        <v>335354</v>
+        <v>335353.80878253625</v>
       </c>
       <c r="BD3" s="1">
-        <v>343738</v>
+        <v>343737.65400209965</v>
       </c>
       <c r="BE3" s="1">
-        <v>352331</v>
+        <v>352331.09535215207</v>
       </c>
       <c r="BF3" s="1">
-        <v>361139</v>
+        <v>361139.37273595581</v>
       </c>
       <c r="BG3" s="1">
-        <v>370168</v>
+        <v>370167.85705435474</v>
       </c>
       <c r="BH3" s="1">
-        <v>379422</v>
+        <v>379422.05348071363</v>
       </c>
       <c r="BI3" s="1">
-        <v>388908</v>
+        <v>388907.60481773136</v>
       </c>
       <c r="BJ3" s="1">
-        <v>398630</v>
+        <v>398630.29493817466</v>
       </c>
       <c r="BK3" s="1">
-        <v>408596</v>
+        <v>408596.052311629</v>
       </c>
       <c r="BL3" s="1">
-        <v>418811</v>
+        <v>418810.95361941971</v>
       </c>
       <c r="BM3" s="1">
-        <v>429281</v>
+        <v>429281.2274599052</v>
       </c>
       <c r="BN3" s="1">
-        <v>440013</v>
+        <v>440013.25814640278</v>
       </c>
       <c r="BO3" s="1">
-        <v>451014</v>
+        <v>451013.58960006299</v>
       </c>
       <c r="BP3" s="1">
-        <v>462289</v>
+        <v>462288.92934006441</v>
       </c>
       <c r="BQ3" s="1">
-        <v>473846</v>
+        <v>473846.15257356595</v>
       </c>
       <c r="BR3" s="1">
-        <v>485692</v>
+        <v>485692.30638790515</v>
       </c>
       <c r="BS3" s="1">
-        <v>497835</v>
+        <v>497834.61404760275</v>
       </c>
       <c r="BT3" s="1">
-        <v>510280</v>
+        <v>510280.47939879278</v>
       </c>
       <c r="BU3" s="1">
-        <v>523037</v>
+        <v>523037.49138376256</v>
       </c>
       <c r="BV3" s="1">
-        <v>536113</v>
+        <v>536113.4286683565</v>
       </c>
       <c r="BW3" s="1">
-        <v>549516</v>
+        <v>549516.26438506553</v>
       </c>
       <c r="BX3" s="1">
-        <v>563254</v>
+        <v>563254.17099469213</v>
       </c>
       <c r="BY3" s="1">
-        <v>577336</v>
+        <v>577335.52526955924</v>
       </c>
       <c r="BZ3" s="1">
-        <v>591769</v>
+        <v>591768.91340129834</v>
       </c>
       <c r="CA3" s="1">
-        <v>606563</v>
+        <v>606563.13623633073</v>
       </c>
       <c r="CB3" s="1">
-        <v>621727</v>
+        <v>621727.21464223892</v>
       </c>
       <c r="CC3" s="1">
-        <v>637270</v>
+        <v>637270.39500829496</v>
       </c>
       <c r="CD3" s="1">
-        <v>653202</v>
+        <v>653202.15488350217</v>
       </c>
       <c r="CE3" s="1">
-        <v>669532</v>
+        <v>669532.20875558979</v>
       </c>
       <c r="CF3" s="1">
-        <v>686271</v>
+        <v>686270.5139744794</v>
       </c>
       <c r="CG3" s="1">
-        <v>703427</v>
+        <v>703427.2768238415</v>
       </c>
       <c r="CH3" s="1">
-        <v>721013</v>
+        <v>721012.95874443743</v>
       </c>
       <c r="CI3" s="1">
-        <v>739038</v>
+        <v>739038.28271304851</v>
       </c>
       <c r="CJ3" s="1">
-        <v>757514</v>
+        <v>757514.23978087446</v>
       </c>
       <c r="CK3" s="1">
-        <v>776452</v>
+        <v>776452.09577539633</v>
       </c>
       <c r="CL3" s="1">
-        <v>795863</v>
+        <v>795863.3981697812</v>
       </c>
       <c r="CM3" s="1">
-        <v>815760</v>
+        <v>815759.98312402575</v>
       </c>
       <c r="CN3" s="1">
-        <v>836154</v>
+        <v>836153.98270212638</v>
       </c>
       <c r="CO3" s="1">
-        <v>857058</v>
+        <v>857057.83226967929</v>
       </c>
       <c r="CP3" s="1">
-        <v>878484</v>
+        <v>878484.27807642135</v>
       </c>
       <c r="CQ3" s="1">
-        <v>900446</v>
+        <v>900446.38502833189</v>
       </c>
       <c r="CR3" s="1">
-        <v>922958</v>
+        <v>922957.54465404002</v>
       </c>
       <c r="CS3" s="1">
-        <v>946031</v>
+        <v>946031.48327039112</v>
       </c>
       <c r="CT3" s="1">
-        <v>969682</v>
+        <v>969682.27035215078</v>
       </c>
       <c r="CU3" s="1">
-        <v>993924</v>
+        <v>993924.32711095479</v>
       </c>
       <c r="CV3" s="1">
-        <v>1018772</v>
+        <v>1018772.4352887283</v>
       </c>
       <c r="CW3" s="1">
-        <v>1044242</v>
+        <v>1044241.7461709465</v>
       </c>
       <c r="CX3" s="1">
-        <v>1070348</v>
+        <v>1070347.7898252201</v>
       </c>
       <c r="CY3" s="1">
-        <v>1097106</v>
+        <v>1097106.4845708506</v>
       </c>
       <c r="CZ3" s="1">
-        <v>1124534</v>
+        <v>1124534.1466851218</v>
       </c>
       <c r="DA3" s="1">
-        <v>1152648</v>
+        <v>1152647.5003522499</v>
       </c>
       <c r="DB3" s="1">
-        <v>1181464</v>
+        <v>1181463.6878610556</v>
       </c>
       <c r="DC3" s="1">
-        <v>1211000</v>
+        <v>1211000.2800575821</v>
       </c>
       <c r="DD3" s="1">
-        <v>1241275</v>
+        <v>1241275.2870590216</v>
       </c>
       <c r="DE3" s="1">
-        <v>1272307</v>
+        <v>1272307.1692354972</v>
       </c>
       <c r="DF3" s="1">
-        <v>1304115</v>
+        <v>1304114.8484663845</v>
       </c>
       <c r="DG3" s="1">
-        <v>1336718</v>
+        <v>1336717.7196780443</v>
       </c>
       <c r="DH3" s="1">
-        <v>1370136</v>
+        <v>1370135.6626699951</v>
       </c>
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.2">
@@ -3193,313 +3193,313 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>98639.552890991094</v>
       </c>
       <c r="K4" s="1">
-        <v>98640</v>
+        <v>101105.54171326588</v>
       </c>
       <c r="L4" s="1">
-        <v>101106</v>
+        <v>103633.1802560975</v>
       </c>
       <c r="M4" s="1">
-        <v>103633</v>
+        <v>106224.00976249993</v>
       </c>
       <c r="N4" s="1">
-        <v>106224</v>
+        <v>108879.61000656245</v>
       </c>
       <c r="O4" s="1">
-        <v>108880</v>
+        <v>111601.60025672649</v>
       </c>
       <c r="P4" s="1">
-        <v>111602</v>
+        <v>114391.64026314464</v>
       </c>
       <c r="Q4" s="1">
-        <v>114392</v>
+        <v>117251.43126972325</v>
       </c>
       <c r="R4" s="1">
-        <v>117251</v>
+        <v>120182.71705146633</v>
       </c>
       <c r="S4" s="1">
-        <v>120183</v>
+        <v>123187.28497775299</v>
       </c>
       <c r="T4" s="1">
-        <v>123187</v>
+        <v>126266.96710219681</v>
       </c>
       <c r="U4" s="1">
-        <v>126267</v>
+        <v>129423.64127975171</v>
       </c>
       <c r="V4" s="1">
-        <v>129424</v>
+        <v>132659.23231174552</v>
       </c>
       <c r="W4" s="1">
-        <v>132659</v>
+        <v>135975.71311953917</v>
       </c>
       <c r="X4" s="1">
-        <v>135976</v>
+        <v>139375.10594752763</v>
       </c>
       <c r="Y4" s="1">
-        <v>139375</v>
+        <v>142859.48359621578</v>
       </c>
       <c r="Z4" s="1">
-        <v>142859</v>
+        <v>146430.9706861212</v>
       </c>
       <c r="AA4" s="1">
-        <v>146431</v>
+        <v>150091.74495327423</v>
       </c>
       <c r="AB4" s="1">
-        <v>150092</v>
+        <v>153844.03857710605</v>
       </c>
       <c r="AC4" s="1">
-        <v>153844</v>
+        <v>157690.13954153369</v>
       </c>
       <c r="AD4" s="1">
-        <v>157690</v>
+        <v>161632.39303007204</v>
       </c>
       <c r="AE4" s="1">
-        <v>161632</v>
+        <v>165673.20285582382</v>
       </c>
       <c r="AF4" s="1">
-        <v>165673</v>
+        <v>169815.03292721938</v>
       </c>
       <c r="AG4" s="1">
-        <v>169815</v>
+        <v>174060.40875039989</v>
       </c>
       <c r="AH4" s="1">
-        <v>174060</v>
+        <v>178411.91896915986</v>
       </c>
       <c r="AI4" s="1">
-        <v>178412</v>
+        <v>182872.21694338892</v>
       </c>
       <c r="AJ4" s="1">
-        <v>182872</v>
+        <v>187444.02236697357</v>
       </c>
       <c r="AK4" s="1">
-        <v>187444</v>
+        <v>192130.12292614792</v>
       </c>
       <c r="AL4" s="1">
-        <v>192130</v>
+        <v>196933.37599930161</v>
       </c>
       <c r="AM4" s="1">
-        <v>196933</v>
+        <v>201856.71039928411</v>
       </c>
       <c r="AN4" s="1">
-        <v>201857</v>
+        <v>206903.12815926623</v>
       </c>
       <c r="AO4" s="1">
-        <v>206903</v>
+        <v>212075.70636324788</v>
       </c>
       <c r="AP4" s="1">
-        <v>212076</v>
+        <v>217377.59902232903</v>
       </c>
       <c r="AQ4" s="1">
-        <v>217378</v>
+        <v>222812.03899788726</v>
       </c>
       <c r="AR4" s="1">
-        <v>222812</v>
+        <v>228382.33997283439</v>
       </c>
       <c r="AS4" s="1">
-        <v>228382</v>
+        <v>234091.89847215527</v>
       </c>
       <c r="AT4" s="1">
-        <v>234092</v>
+        <v>239944.19593395916</v>
       </c>
       <c r="AU4" s="1">
-        <v>239944</v>
+        <v>245942.80083230813</v>
       </c>
       <c r="AV4" s="1">
-        <v>245943</v>
+        <v>252091.37085311578</v>
       </c>
       <c r="AW4" s="1">
-        <v>252091</v>
+        <v>258393.6551244437</v>
       </c>
       <c r="AX4" s="1">
-        <v>258394</v>
+        <v>264853.49650255474</v>
       </c>
       <c r="AY4" s="1">
-        <v>264853</v>
+        <v>271474.83391511865</v>
       </c>
       <c r="AZ4" s="1">
-        <v>271475</v>
+        <v>278261.70476299664</v>
       </c>
       <c r="BA4" s="1">
-        <v>278262</v>
+        <v>285218.24738207151</v>
       </c>
       <c r="BB4" s="1">
-        <v>285218</v>
+        <v>292348.70356662327</v>
       </c>
       <c r="BC4" s="1">
-        <v>292349</v>
+        <v>299657.42115578888</v>
       </c>
       <c r="BD4" s="1">
-        <v>299657</v>
+        <v>307148.85668468359</v>
       </c>
       <c r="BE4" s="1">
-        <v>307149</v>
+        <v>314827.57810180064</v>
       </c>
       <c r="BF4" s="1">
-        <v>314828</v>
+        <v>322698.2675543456</v>
       </c>
       <c r="BG4" s="1">
-        <v>322698</v>
+        <v>330765.72424320423</v>
       </c>
       <c r="BH4" s="1">
-        <v>330766</v>
+        <v>339034.86734928435</v>
       </c>
       <c r="BI4" s="1">
-        <v>339035</v>
+        <v>347510.73903301638</v>
       </c>
       <c r="BJ4" s="1">
-        <v>347511</v>
+        <v>356198.50750884181</v>
       </c>
       <c r="BK4" s="1">
-        <v>356199</v>
+        <v>365103.47019656282</v>
       </c>
       <c r="BL4" s="1">
-        <v>365103</v>
+        <v>374231.05695147684</v>
       </c>
       <c r="BM4" s="1">
-        <v>374231</v>
+        <v>383586.83337526378</v>
       </c>
       <c r="BN4" s="1">
-        <v>383587</v>
+        <v>393176.50420964533</v>
       </c>
       <c r="BO4" s="1">
-        <v>393177</v>
+        <v>403005.91681488656</v>
       </c>
       <c r="BP4" s="1">
-        <v>403006</v>
+        <v>413081.06473525864</v>
       </c>
       <c r="BQ4" s="1">
-        <v>413081</v>
+        <v>423408.09135364002</v>
       </c>
       <c r="BR4" s="1">
-        <v>423408</v>
+        <v>433993.29363748111</v>
       </c>
       <c r="BS4" s="1">
-        <v>433993</v>
+        <v>444843.1259784181</v>
       </c>
       <c r="BT4" s="1">
-        <v>444843</v>
+        <v>455964.20412787847</v>
       </c>
       <c r="BU4" s="1">
-        <v>455964</v>
+        <v>467363.3092310754</v>
       </c>
       <c r="BV4" s="1">
-        <v>467363</v>
+        <v>479047.39196185226</v>
       </c>
       <c r="BW4" s="1">
-        <v>479047</v>
+        <v>491023.57676089858</v>
       </c>
       <c r="BX4" s="1">
-        <v>491024</v>
+        <v>503299.16617992095</v>
       </c>
       <c r="BY4" s="1">
-        <v>503299</v>
+        <v>515881.64533441898</v>
       </c>
       <c r="BZ4" s="1">
-        <v>515882</v>
+        <v>528778.68646777945</v>
       </c>
       <c r="CA4" s="1">
-        <v>528779</v>
+        <v>541998.15362947388</v>
       </c>
       <c r="CB4" s="1">
-        <v>541998</v>
+        <v>555548.10747021064</v>
       </c>
       <c r="CC4" s="1">
-        <v>555548</v>
+        <v>569436.81015696598</v>
       </c>
       <c r="CD4" s="1">
-        <v>569437</v>
+        <v>583672.73041088996</v>
       </c>
       <c r="CE4" s="1">
-        <v>583673</v>
+        <v>598264.54867116234</v>
       </c>
       <c r="CF4" s="1">
-        <v>598265</v>
+        <v>613221.16238794138</v>
       </c>
       <c r="CG4" s="1">
-        <v>613221</v>
+        <v>628551.69144763984</v>
       </c>
       <c r="CH4" s="1">
-        <v>628552</v>
+        <v>644265.48373383086</v>
       </c>
       <c r="CI4" s="1">
-        <v>644265</v>
+        <v>660372.12082717661</v>
       </c>
       <c r="CJ4" s="1">
-        <v>660372</v>
+        <v>676881.42384785588</v>
       </c>
       <c r="CK4" s="1">
-        <v>676881</v>
+        <v>693803.45944405231</v>
       </c>
       <c r="CL4" s="1">
-        <v>693803</v>
+        <v>711148.54593015357</v>
       </c>
       <c r="CM4" s="1">
-        <v>711149</v>
+        <v>728927.25957840739</v>
       </c>
       <c r="CN4" s="1">
-        <v>728927</v>
+        <v>747150.44106786756</v>
       </c>
       <c r="CO4" s="1">
-        <v>747150</v>
+        <v>765829.2020945641</v>
       </c>
       <c r="CP4" s="1">
-        <v>765829</v>
+        <v>784974.93214692816</v>
       </c>
       <c r="CQ4" s="1">
-        <v>784975</v>
+        <v>804599.3054506015</v>
       </c>
       <c r="CR4" s="1">
-        <v>804599</v>
+        <v>824714.28808686626</v>
       </c>
       <c r="CS4" s="1">
-        <v>824714</v>
+        <v>845332.14528903808</v>
       </c>
       <c r="CT4" s="1">
-        <v>845332</v>
+        <v>866465.44892126392</v>
       </c>
       <c r="CU4" s="1">
-        <v>866465</v>
+        <v>888127.08514429571</v>
       </c>
       <c r="CV4" s="1">
-        <v>888127</v>
+        <v>910330.26227290288</v>
       </c>
       <c r="CW4" s="1">
-        <v>910330</v>
+        <v>933088.51882972522</v>
       </c>
       <c r="CX4" s="1">
-        <v>933089</v>
+        <v>956415.73180046852</v>
       </c>
       <c r="CY4" s="1">
-        <v>956416</v>
+        <v>980326.12509548012</v>
       </c>
       <c r="CZ4" s="1">
-        <v>980326</v>
+        <v>1004834.2782228672</v>
       </c>
       <c r="DA4" s="1">
-        <v>1004834</v>
+        <v>1029955.1351784387</v>
       </c>
       <c r="DB4" s="1">
-        <v>1029955</v>
+        <v>1055704.0135578993</v>
       </c>
       <c r="DC4" s="1">
-        <v>1055704</v>
+        <v>1082096.613896847</v>
       </c>
       <c r="DD4" s="1">
-        <v>1082097</v>
+        <v>1109149.0292442678</v>
       </c>
       <c r="DE4" s="1">
-        <v>1109149</v>
+        <v>1136877.7549753748</v>
       </c>
       <c r="DF4" s="1">
-        <v>1136878</v>
+        <v>1165299.6988497591</v>
       </c>
       <c r="DG4" s="1">
-        <v>1165300</v>
+        <v>1194432.1913210033</v>
       </c>
       <c r="DH4" s="1">
-        <v>1194432</v>
+        <v>1224292.9961040278</v>
       </c>
       <c r="DI4" s="1"/>
     </row>
